--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.37988750396842</v>
+        <v>6.138059000000001</v>
       </c>
       <c r="H2">
-        <v>5.37988750396842</v>
+        <v>18.414177</v>
       </c>
       <c r="I2">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338249</v>
       </c>
       <c r="J2">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338247</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N2">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q2">
-        <v>142.7516203131294</v>
+        <v>176.3106706462267</v>
       </c>
       <c r="R2">
-        <v>142.7516203131294</v>
+        <v>1586.79603581604</v>
       </c>
       <c r="S2">
-        <v>0.03158206301547674</v>
+        <v>0.03613241131005569</v>
       </c>
       <c r="T2">
-        <v>0.03158206301547674</v>
+        <v>0.03613241131005569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.37988750396842</v>
+        <v>6.138059000000001</v>
       </c>
       <c r="H3">
-        <v>5.37988750396842</v>
+        <v>18.414177</v>
       </c>
       <c r="I3">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338249</v>
       </c>
       <c r="J3">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338247</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N3">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q3">
-        <v>161.8683621628342</v>
+        <v>187.6396186238777</v>
       </c>
       <c r="R3">
-        <v>161.8683621628342</v>
+        <v>1688.756567614899</v>
       </c>
       <c r="S3">
-        <v>0.03581141007594196</v>
+        <v>0.03845412108824642</v>
       </c>
       <c r="T3">
-        <v>0.03581141007594196</v>
+        <v>0.03845412108824642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.37988750396842</v>
+        <v>6.138059000000001</v>
       </c>
       <c r="H4">
-        <v>5.37988750396842</v>
+        <v>18.414177</v>
       </c>
       <c r="I4">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338249</v>
       </c>
       <c r="J4">
-        <v>0.07596118062511033</v>
+        <v>0.08535364925338247</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N4">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q4">
-        <v>38.72622672572498</v>
+        <v>52.538912428388</v>
       </c>
       <c r="R4">
-        <v>38.72622672572498</v>
+        <v>472.850211855492</v>
       </c>
       <c r="S4">
-        <v>0.008567707533691632</v>
+        <v>0.01076711685508038</v>
       </c>
       <c r="T4">
-        <v>0.008567707533691632</v>
+        <v>0.01076711685508037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.09896645274</v>
+        <v>37.15353</v>
       </c>
       <c r="H5">
-        <v>37.09896645274</v>
+        <v>111.46059</v>
       </c>
       <c r="I5">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="J5">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N5">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q5">
-        <v>984.3955973362956</v>
+        <v>1067.2044356652</v>
       </c>
       <c r="R5">
-        <v>984.3955973362956</v>
+        <v>9604.839920986798</v>
       </c>
       <c r="S5">
-        <v>0.2177855755264822</v>
+        <v>0.2187086548989661</v>
       </c>
       <c r="T5">
-        <v>0.2177855755264822</v>
+        <v>0.2187086548989661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.09896645274</v>
+        <v>37.15353</v>
       </c>
       <c r="H6">
-        <v>37.09896645274</v>
+        <v>111.46059</v>
       </c>
       <c r="I6">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="J6">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N6">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q6">
-        <v>1116.22202754413</v>
+        <v>1135.77829729737</v>
       </c>
       <c r="R6">
-        <v>1116.22202754413</v>
+        <v>10222.00467567633</v>
       </c>
       <c r="S6">
-        <v>0.2469505728609905</v>
+        <v>0.2327619108053207</v>
       </c>
       <c r="T6">
-        <v>0.2469505728609905</v>
+        <v>0.2327619108053207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.09896645274</v>
+        <v>37.15353</v>
       </c>
       <c r="H7">
-        <v>37.09896645274</v>
+        <v>111.46059</v>
       </c>
       <c r="I7">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="J7">
-        <v>0.5238178846012602</v>
+        <v>0.5166436764692264</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N7">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q7">
-        <v>267.0507487524795</v>
+        <v>318.0168289479599</v>
       </c>
       <c r="R7">
-        <v>267.0507487524795</v>
+        <v>2862.15146053164</v>
       </c>
       <c r="S7">
-        <v>0.05908173621378745</v>
+        <v>0.06517311076493959</v>
       </c>
       <c r="T7">
-        <v>0.05908173621378745</v>
+        <v>0.06517311076493959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.3453151740963</v>
+        <v>28.621669</v>
       </c>
       <c r="H8">
-        <v>28.3453151740963</v>
+        <v>85.86500699999999</v>
       </c>
       <c r="I8">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773913</v>
       </c>
       <c r="J8">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773912</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N8">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q8">
-        <v>752.123472173691</v>
+        <v>822.1337814452932</v>
       </c>
       <c r="R8">
-        <v>752.123472173691</v>
+        <v>7399.204033007639</v>
       </c>
       <c r="S8">
-        <v>0.1663981875757663</v>
+        <v>0.168484844588211</v>
       </c>
       <c r="T8">
-        <v>0.1663981875757663</v>
+        <v>0.168484844588211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.3453151740963</v>
+        <v>28.621669</v>
       </c>
       <c r="H9">
-        <v>28.3453151740963</v>
+        <v>85.86500699999999</v>
       </c>
       <c r="I9">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773913</v>
       </c>
       <c r="J9">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773912</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N9">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q9">
-        <v>852.8449226560693</v>
+        <v>874.9604810802342</v>
       </c>
       <c r="R9">
-        <v>852.8449226560693</v>
+        <v>7874.644329722109</v>
       </c>
       <c r="S9">
-        <v>0.188681585754835</v>
+        <v>0.1793109394148392</v>
       </c>
       <c r="T9">
-        <v>0.188681585754835</v>
+        <v>0.1793109394148392</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.3453151740963</v>
+        <v>28.621669</v>
       </c>
       <c r="H10">
-        <v>28.3453151740963</v>
+        <v>85.86500699999999</v>
       </c>
       <c r="I10">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773913</v>
       </c>
       <c r="J10">
-        <v>0.4002209347736295</v>
+        <v>0.3980026742773912</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N10">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q10">
-        <v>204.0390437968217</v>
+        <v>244.9880916989079</v>
       </c>
       <c r="R10">
-        <v>204.0390437968217</v>
+        <v>2204.892825290171</v>
       </c>
       <c r="S10">
-        <v>0.04514116144302822</v>
+        <v>0.05020689027434103</v>
       </c>
       <c r="T10">
-        <v>0.04514116144302822</v>
+        <v>0.05020689027434102</v>
       </c>
     </row>
   </sheetData>
